--- a/Batabd_test_case.xlsx
+++ b/Batabd_test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb5d660b1655f201/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeasi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{099C2477-032D-4616-A737-FE072DE1721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF025DA-307C-419A-84AE-47A2EF72190E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA80643A-73A6-4A7D-9C46-65875381313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps" sheetId="2" r:id="rId1"/>
@@ -23,11 +23,25 @@
     <definedName name="Remember_Me_checkbox_error">TestCase!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="248">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -472,9 +486,6 @@
     <t>Should be accepted</t>
   </si>
   <si>
-    <t>sadiapromi2020@gmail.com</t>
-  </si>
-  <si>
     <t>Checking by giving  invalid email</t>
   </si>
   <si>
@@ -544,9 +555,6 @@
   </si>
   <si>
     <t>Checking firstname and lastname with alphabets</t>
-  </si>
-  <si>
-    <t>Sadia Promi</t>
   </si>
   <si>
     <t>Verify that referral code which is not mandatody keep blank and try lo register</t>
@@ -582,13 +590,7 @@
 3. Keep both the fields blank</t>
   </si>
   <si>
-    <t>https://ibb.co/F6fcKJN</t>
-  </si>
-  <si>
     <t>Should allow user to log in</t>
-  </si>
-  <si>
-    <t>Emaii:sadiapromi2020@gmail.com  Pass:Sapro#12345</t>
   </si>
   <si>
     <t>1. Goto the URL
@@ -650,9 +652,6 @@
 https://www.batabd.com                          2. Now, select the product you want to buy and click Shop Now                    3.Then add negative  quantity </t>
   </si>
   <si>
-    <t>https://ibb.co/wwttZp0</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -687,71 +686,6 @@
   </si>
   <si>
     <t>1.Go to https://www.batabd.com                          2. Now, select the product you want to buy and click it   3.Then go to buy it now option and give all the information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://ibb.co/4g5NdPV                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://ibb.co/hFtWFMt                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://ibb.co/KGz2LMb</t>
-    </r>
   </si>
   <si>
     <t>Registration,Log in,Purching a Product</t>
@@ -900,12 +834,21 @@
   <si>
     <t>https://drive.google.com/file/d/1MW3-JhZkHqPNtBD4J1g0kK8u693nDtBZ/view?usp=sharing</t>
   </si>
+  <si>
+    <t>yeasirhossain4885@gmail.com</t>
+  </si>
+  <si>
+    <t>Yeasir Hossain</t>
+  </si>
+  <si>
+    <t>Emaii: yeasirhossain4885@gmail.com  Pass:Yeahos#12345</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62">
+  <fonts count="61">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1203,13 +1146,6 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2862,7 +2798,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2871,44 +2807,44 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2921,15 +2857,89 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2948,12 +2958,7 @@
     <xf numFmtId="0" fontId="34" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2969,82 +2974,13 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3052,18 +2988,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3075,6 +2999,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3083,6 +3015,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3094,6 +3027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3812,12 +3748,12 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.5546875" customWidth="1"/>
+    <col min="1" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.45" customHeight="1">
+    <row r="1" spans="1:1" ht="12.5" customHeight="1">
       <c r="A1" s="263"/>
     </row>
     <row r="2" spans="1:1" ht="12.75" customHeight="1"/>
@@ -4831,34 +4767,34 @@
   <dimension ref="A1:AC970"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="7" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="60.21875" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="5" width="60.19921875" customWidth="1"/>
+    <col min="6" max="6" width="38.8984375" customWidth="1"/>
+    <col min="7" max="7" width="31.09765625" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="95.6640625" customWidth="1"/>
-    <col min="14" max="14" width="67.6640625" customWidth="1"/>
-    <col min="15" max="29" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" customWidth="1"/>
+    <col min="12" max="12" width="19.09765625" customWidth="1"/>
+    <col min="13" max="13" width="95.69921875" customWidth="1"/>
+    <col min="14" max="14" width="67.69921875" customWidth="1"/>
+    <col min="15" max="29" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="272"/>
+      <c r="B1" s="302"/>
       <c r="C1" s="212" t="s">
         <v>121</v>
       </c>
@@ -4876,10 +4812,10 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="273" t="s">
+      <c r="L1" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="274"/>
+      <c r="M1" s="304"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -4898,10 +4834,10 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="272"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="213" t="s">
         <v>122</v>
       </c>
@@ -4944,16 +4880,16 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="301" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="272"/>
+      <c r="B3" s="302"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="213" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>53</v>
@@ -4990,10 +4926,10 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="301" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="272"/>
+      <c r="B4" s="302"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
         <v>56</v>
@@ -5034,15 +4970,15 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="284" t="s">
+      <c r="A5" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="276"/>
-      <c r="G5" s="277"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="307"/>
       <c r="H5" s="222"/>
       <c r="I5" s="222"/>
       <c r="J5" s="222"/>
@@ -5174,7 +5110,7 @@
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="215" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F8" s="59" t="s">
         <v>74</v>
@@ -5246,13 +5182,13 @@
       <c r="A10" s="67">
         <v>2</v>
       </c>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="299" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="285" t="s">
+      <c r="C10" s="312" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="265" t="s">
+      <c r="D10" s="298" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="215" t="s">
@@ -5297,11 +5233,11 @@
       <c r="A11" s="67">
         <v>3</v>
       </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="269"/>
-      <c r="D11" s="266"/>
+      <c r="B11" s="308"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="271"/>
       <c r="E11" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="215" t="s">
         <v>81</v>
@@ -5342,9 +5278,9 @@
       <c r="A12" s="67">
         <v>4</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="269"/>
-      <c r="D12" s="266"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="215" t="s">
         <v>127</v>
       </c>
@@ -5387,9 +5323,9 @@
       <c r="A13" s="67">
         <v>5</v>
       </c>
-      <c r="B13" s="278"/>
-      <c r="C13" s="269"/>
-      <c r="D13" s="266"/>
+      <c r="B13" s="308"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="215" t="s">
         <v>129</v>
       </c>
@@ -5430,9 +5366,9 @@
     </row>
     <row r="14" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A14" s="225"/>
-      <c r="B14" s="278"/>
+      <c r="B14" s="308"/>
       <c r="C14" s="226"/>
-      <c r="D14" s="266"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="227"/>
       <c r="F14" s="227"/>
       <c r="G14" s="227"/>
@@ -5463,13 +5399,13 @@
       <c r="A15" s="76">
         <v>6</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="268" t="s">
+      <c r="B15" s="308"/>
+      <c r="C15" s="299" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="266"/>
+      <c r="D15" s="271"/>
       <c r="E15" s="219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="218" t="s">
         <v>131</v>
@@ -5506,18 +5442,18 @@
       <c r="AB15" s="82"/>
       <c r="AC15" s="82"/>
     </row>
-    <row r="16" spans="1:29" ht="28.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:29" ht="29" customHeight="1" thickBot="1">
       <c r="A16" s="76">
         <v>7</v>
       </c>
-      <c r="B16" s="278"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="266"/>
+      <c r="B16" s="308"/>
+      <c r="C16" s="268"/>
+      <c r="D16" s="271"/>
       <c r="E16" s="221" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="78" t="s">
         <v>123</v>
@@ -5526,7 +5462,7 @@
         <v>138</v>
       </c>
       <c r="I16" s="218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" s="220"/>
       <c r="K16" s="80"/>
@@ -5555,26 +5491,26 @@
       <c r="A17" s="76">
         <v>8</v>
       </c>
-      <c r="B17" s="278"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="266"/>
+      <c r="B17" s="308"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="221" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="218" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="218" t="s">
+      <c r="G17" s="218" t="s">
         <v>150</v>
-      </c>
-      <c r="G17" s="218" t="s">
-        <v>151</v>
       </c>
       <c r="H17" s="59" t="s">
         <v>80</v>
       </c>
       <c r="I17" s="218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="220" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="K17" s="80"/>
       <c r="L17" s="62" t="s">
@@ -5602,11 +5538,11 @@
       <c r="A18" s="76">
         <v>9</v>
       </c>
-      <c r="B18" s="278"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="266"/>
+      <c r="B18" s="308"/>
+      <c r="C18" s="268"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="221" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="215" t="s">
         <v>139</v>
@@ -5615,7 +5551,7 @@
         <v>123</v>
       </c>
       <c r="H18" s="220" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="I18" s="218"/>
       <c r="J18" s="85"/>
@@ -5645,11 +5581,11 @@
       <c r="A19" s="76">
         <v>10</v>
       </c>
-      <c r="B19" s="278"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="266"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="268"/>
+      <c r="D19" s="271"/>
       <c r="E19" s="221" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="59" t="s">
         <v>137</v>
@@ -5688,11 +5624,11 @@
       <c r="A20" s="76">
         <v>11</v>
       </c>
-      <c r="B20" s="278"/>
-      <c r="C20" s="269"/>
-      <c r="D20" s="266"/>
+      <c r="B20" s="308"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="271"/>
       <c r="E20" s="221" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="215" t="s">
         <v>139</v>
@@ -5731,14 +5667,14 @@
       <c r="A21" s="76">
         <v>12</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="269"/>
-      <c r="D21" s="266"/>
+      <c r="B21" s="308"/>
+      <c r="C21" s="268"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="59" t="s">
         <v>152</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>153</v>
       </c>
       <c r="G21" s="78" t="s">
         <v>123</v>
@@ -5774,11 +5710,11 @@
       <c r="A22" s="76">
         <v>13</v>
       </c>
-      <c r="B22" s="278"/>
-      <c r="C22" s="269"/>
-      <c r="D22" s="266"/>
+      <c r="B22" s="308"/>
+      <c r="C22" s="268"/>
+      <c r="D22" s="271"/>
       <c r="E22" s="77" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F22" s="60" t="s">
         <v>85</v>
@@ -5817,11 +5753,11 @@
       <c r="A23" s="76">
         <v>14</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="269"/>
-      <c r="D23" s="266"/>
+      <c r="B23" s="308"/>
+      <c r="C23" s="268"/>
+      <c r="D23" s="271"/>
       <c r="E23" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>81</v>
@@ -5860,11 +5796,11 @@
       <c r="A24" s="76">
         <v>15</v>
       </c>
-      <c r="B24" s="278"/>
-      <c r="C24" s="269"/>
-      <c r="D24" s="266"/>
+      <c r="B24" s="308"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="271"/>
       <c r="E24" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>83</v>
@@ -5873,7 +5809,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="223" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
@@ -5903,11 +5839,11 @@
       <c r="A25" s="76">
         <v>16</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="266"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="271"/>
       <c r="E25" s="219" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="215" t="s">
         <v>84</v>
@@ -5946,20 +5882,20 @@
       <c r="A26" s="76">
         <v>17</v>
       </c>
-      <c r="B26" s="278"/>
-      <c r="C26" s="269"/>
-      <c r="D26" s="266"/>
+      <c r="B26" s="308"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="271"/>
       <c r="E26" s="219" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="215" t="s">
         <v>158</v>
-      </c>
-      <c r="F26" s="215" t="s">
-        <v>159</v>
       </c>
       <c r="G26" s="218" t="s">
         <v>123</v>
       </c>
       <c r="H26" s="218" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -5989,11 +5925,11 @@
       <c r="A27" s="76">
         <v>18</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="266"/>
+      <c r="B27" s="308"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="271"/>
       <c r="E27" s="219" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="215" t="s">
         <v>84</v>
@@ -6002,7 +5938,7 @@
         <v>123</v>
       </c>
       <c r="H27" s="224" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I27" s="78"/>
       <c r="J27" s="78"/>
@@ -6032,11 +5968,11 @@
       <c r="A28" s="76">
         <v>19</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="266"/>
+      <c r="B28" s="308"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="271"/>
       <c r="E28" s="219" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="215" t="s">
         <v>139</v>
@@ -6045,7 +5981,7 @@
         <v>123</v>
       </c>
       <c r="H28" s="218" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="I28" s="79"/>
       <c r="J28" s="78"/>
@@ -6075,11 +6011,11 @@
       <c r="A29" s="76">
         <v>20</v>
       </c>
-      <c r="B29" s="278"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="266"/>
+      <c r="B29" s="308"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="271"/>
       <c r="E29" s="221" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F29" s="215" t="s">
         <v>139</v>
@@ -6118,14 +6054,14 @@
       <c r="A30" s="76">
         <v>21</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="266"/>
+      <c r="B30" s="308"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="271"/>
       <c r="E30" s="221" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" s="215" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G30" s="218" t="s">
         <v>123</v>
@@ -6161,14 +6097,14 @@
       <c r="A31" s="76">
         <v>22</v>
       </c>
-      <c r="B31" s="278"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="266"/>
+      <c r="B31" s="308"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="271"/>
       <c r="E31" s="215" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F31" s="215" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G31" s="218" t="s">
         <v>123</v>
@@ -6204,14 +6140,14 @@
       <c r="A32" s="76">
         <v>23</v>
       </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="266"/>
+      <c r="B32" s="308"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="271"/>
       <c r="E32" s="215" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F32" s="215" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G32" s="218" t="s">
         <v>123</v>
@@ -6247,14 +6183,14 @@
       <c r="A33" s="76">
         <v>24</v>
       </c>
-      <c r="B33" s="278"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="266"/>
+      <c r="B33" s="308"/>
+      <c r="C33" s="268"/>
+      <c r="D33" s="271"/>
       <c r="E33" s="215" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F33" s="215" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G33" s="218" t="s">
         <v>123</v>
@@ -6288,9 +6224,9 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="232"/>
-      <c r="B34" s="278"/>
+      <c r="B34" s="308"/>
       <c r="C34" s="233"/>
-      <c r="D34" s="266"/>
+      <c r="D34" s="271"/>
       <c r="E34" s="234"/>
       <c r="F34" s="227"/>
       <c r="G34" s="227"/>
@@ -6321,13 +6257,13 @@
       <c r="A35" s="76">
         <v>25</v>
       </c>
-      <c r="B35" s="278"/>
-      <c r="C35" s="268" t="s">
+      <c r="B35" s="308"/>
+      <c r="C35" s="299" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="266"/>
+      <c r="D35" s="271"/>
       <c r="E35" s="84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F35" s="78" t="s">
         <v>86</v>
@@ -6364,9 +6300,9 @@
       <c r="A36" s="76">
         <v>26</v>
       </c>
-      <c r="B36" s="278"/>
-      <c r="C36" s="270"/>
-      <c r="D36" s="267"/>
+      <c r="B36" s="308"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="272"/>
       <c r="E36" s="88" t="s">
         <v>87</v>
       </c>
@@ -6405,7 +6341,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="76"/>
-      <c r="B37" s="278"/>
+      <c r="B37" s="308"/>
       <c r="C37" s="236"/>
       <c r="D37" s="237"/>
       <c r="E37" s="237"/>
@@ -6438,15 +6374,15 @@
       <c r="A38" s="76">
         <v>27</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="286" t="s">
+      <c r="B38" s="308"/>
+      <c r="C38" s="313" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="288" t="s">
-        <v>198</v>
+      <c r="D38" s="315" t="s">
+        <v>193</v>
       </c>
       <c r="E38" s="218" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F38" s="218" t="s">
         <v>90</v>
@@ -6458,7 +6394,7 @@
         <v>80</v>
       </c>
       <c r="I38" s="217" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J38" s="78"/>
       <c r="K38" s="78"/>
@@ -6487,14 +6423,14 @@
       <c r="A39" s="76">
         <v>28</v>
       </c>
-      <c r="B39" s="278"/>
-      <c r="C39" s="287"/>
-      <c r="D39" s="278"/>
+      <c r="B39" s="308"/>
+      <c r="C39" s="314"/>
+      <c r="D39" s="308"/>
       <c r="E39" s="221" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F39" s="218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="218" t="s">
         <v>123</v>
@@ -6530,23 +6466,23 @@
       <c r="A40" s="76">
         <v>29</v>
       </c>
-      <c r="B40" s="278"/>
-      <c r="C40" s="287"/>
-      <c r="D40" s="278"/>
+      <c r="B40" s="308"/>
+      <c r="C40" s="314"/>
+      <c r="D40" s="308"/>
       <c r="E40" s="84" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G40" s="78" t="s">
         <v>123</v>
       </c>
       <c r="H40" s="79" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="I40" s="79" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J40" s="78"/>
       <c r="K40" s="78"/>
@@ -6575,14 +6511,14 @@
       <c r="A41" s="76">
         <v>30</v>
       </c>
-      <c r="B41" s="278"/>
-      <c r="C41" s="287"/>
-      <c r="D41" s="278"/>
+      <c r="B41" s="308"/>
+      <c r="C41" s="314"/>
+      <c r="D41" s="308"/>
       <c r="E41" s="84" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G41" s="78" t="s">
         <v>123</v>
@@ -6616,21 +6552,21 @@
       <c r="A42" s="76">
         <v>31</v>
       </c>
-      <c r="B42" s="278"/>
-      <c r="C42" s="287"/>
-      <c r="D42" s="278"/>
+      <c r="B42" s="308"/>
+      <c r="C42" s="314"/>
+      <c r="D42" s="308"/>
       <c r="E42" s="84" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G42" s="78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H42" s="78"/>
       <c r="I42" s="217" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J42" s="78"/>
       <c r="K42" s="78"/>
@@ -6659,11 +6595,11 @@
       <c r="A43" s="76">
         <v>32</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="287"/>
-      <c r="D43" s="278"/>
+      <c r="B43" s="308"/>
+      <c r="C43" s="314"/>
+      <c r="D43" s="308"/>
       <c r="E43" s="77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F43" s="78" t="s">
         <v>93</v>
@@ -6698,7 +6634,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="232"/>
-      <c r="B44" s="278"/>
+      <c r="B44" s="308"/>
       <c r="C44" s="241"/>
       <c r="D44" s="241"/>
       <c r="E44" s="241"/>
@@ -6731,16 +6667,16 @@
       <c r="A45" s="76">
         <v>33</v>
       </c>
-      <c r="B45" s="278"/>
-      <c r="C45" s="303"/>
-      <c r="D45" s="305" t="s">
-        <v>185</v>
+      <c r="B45" s="308"/>
+      <c r="C45" s="267"/>
+      <c r="D45" s="270" t="s">
+        <v>181</v>
       </c>
       <c r="E45" s="239" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F45" s="218" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G45" s="218" t="s">
         <v>123</v>
@@ -6774,26 +6710,26 @@
       <c r="A46" s="76">
         <v>34</v>
       </c>
-      <c r="B46" s="278"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="266"/>
+      <c r="B46" s="308"/>
+      <c r="C46" s="268"/>
+      <c r="D46" s="271"/>
       <c r="E46" s="221" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F46" s="218" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G46" s="218" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H46" s="218" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I46" s="217" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J46" s="247" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="K46" s="78"/>
       <c r="L46" s="62" t="s">
@@ -6817,30 +6753,30 @@
       <c r="AB46" s="82"/>
       <c r="AC46" s="82"/>
     </row>
-    <row r="47" spans="1:29" ht="36.450000000000003" customHeight="1" thickBot="1">
+    <row r="47" spans="1:29" ht="36.5" customHeight="1" thickBot="1">
       <c r="A47" s="76">
         <v>35</v>
       </c>
-      <c r="B47" s="278"/>
-      <c r="C47" s="269"/>
-      <c r="D47" s="266"/>
+      <c r="B47" s="308"/>
+      <c r="C47" s="268"/>
+      <c r="D47" s="271"/>
       <c r="E47" s="78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G47" s="218" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H47" s="78">
         <v>-3</v>
       </c>
       <c r="I47" s="218" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J47" s="220" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="K47" s="80"/>
       <c r="L47" s="62" t="s">
@@ -6868,14 +6804,14 @@
       <c r="A48" s="76">
         <v>36</v>
       </c>
-      <c r="B48" s="278"/>
-      <c r="C48" s="269"/>
-      <c r="D48" s="267"/>
+      <c r="B48" s="308"/>
+      <c r="C48" s="268"/>
+      <c r="D48" s="272"/>
       <c r="E48" s="218" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F48" s="243" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G48" s="242" t="s">
         <v>123</v>
@@ -6907,18 +6843,18 @@
       <c r="AB48" s="82"/>
       <c r="AC48" s="82"/>
     </row>
-    <row r="49" spans="1:29" ht="35.549999999999997" customHeight="1" thickBot="1">
+    <row r="49" spans="1:29" ht="35.5" customHeight="1" thickBot="1">
       <c r="A49" s="76">
         <v>37</v>
       </c>
-      <c r="B49" s="278"/>
-      <c r="C49" s="304"/>
+      <c r="B49" s="308"/>
+      <c r="C49" s="269"/>
       <c r="D49" s="89"/>
       <c r="E49" s="218" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F49" s="218" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G49" s="218" t="s">
         <v>123</v>
@@ -6952,7 +6888,7 @@
     </row>
     <row r="50" spans="1:29" ht="31.5" customHeight="1" thickBot="1">
       <c r="A50" s="91"/>
-      <c r="B50" s="278"/>
+      <c r="B50" s="308"/>
       <c r="C50" s="92"/>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
@@ -6983,10 +6919,10 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="91"/>
-      <c r="B51" s="278"/>
+      <c r="B51" s="308"/>
       <c r="C51" s="92"/>
-      <c r="D51" s="308" t="s">
-        <v>205</v>
+      <c r="D51" s="275" t="s">
+        <v>200</v>
       </c>
       <c r="F51" s="78"/>
       <c r="G51" s="78"/>
@@ -7013,13 +6949,13 @@
       <c r="AB51" s="82"/>
       <c r="AC51" s="82"/>
     </row>
-    <row r="52" spans="1:29" ht="21.45" customHeight="1" thickBot="1">
+    <row r="52" spans="1:29" ht="21.5" customHeight="1" thickBot="1">
       <c r="A52" s="91"/>
-      <c r="B52" s="278"/>
+      <c r="B52" s="308"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="309"/>
+      <c r="D52" s="276"/>
       <c r="E52" s="245" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F52" s="67"/>
       <c r="G52" s="78"/>
@@ -7046,13 +6982,13 @@
       <c r="AB52" s="82"/>
       <c r="AC52" s="82"/>
     </row>
-    <row r="53" spans="1:29" ht="40.950000000000003" customHeight="1" thickBot="1">
+    <row r="53" spans="1:29" ht="41" customHeight="1" thickBot="1">
       <c r="A53" s="91"/>
-      <c r="B53" s="278"/>
+      <c r="B53" s="308"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="309"/>
+      <c r="D53" s="276"/>
       <c r="E53" s="245" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F53" s="78"/>
       <c r="G53" s="78"/>
@@ -7081,9 +7017,9 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="91"/>
-      <c r="B54" s="278"/>
+      <c r="B54" s="308"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="309"/>
+      <c r="D54" s="276"/>
       <c r="E54" s="93"/>
       <c r="F54" s="78"/>
       <c r="G54" s="78"/>
@@ -7112,9 +7048,9 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="91"/>
-      <c r="B55" s="278"/>
+      <c r="B55" s="308"/>
       <c r="C55" s="92"/>
-      <c r="D55" s="310"/>
+      <c r="D55" s="277"/>
       <c r="E55" s="240"/>
       <c r="F55" s="78"/>
       <c r="G55" s="78"/>
@@ -7143,9 +7079,9 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="91"/>
-      <c r="B56" s="278"/>
+      <c r="B56" s="308"/>
       <c r="C56" s="92"/>
-      <c r="D56" s="306"/>
+      <c r="D56" s="273"/>
       <c r="E56" s="93"/>
       <c r="F56" s="67"/>
       <c r="G56" s="78"/>
@@ -7174,9 +7110,9 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="91"/>
-      <c r="B57" s="278"/>
+      <c r="B57" s="308"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="269"/>
+      <c r="D57" s="268"/>
       <c r="E57" s="93"/>
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
@@ -7205,9 +7141,9 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="91"/>
-      <c r="B58" s="278"/>
+      <c r="B58" s="308"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="269"/>
+      <c r="D58" s="268"/>
       <c r="E58" s="94"/>
       <c r="F58" s="59"/>
       <c r="G58" s="78"/>
@@ -7236,9 +7172,9 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="91"/>
-      <c r="B59" s="278"/>
+      <c r="B59" s="308"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="269"/>
+      <c r="D59" s="268"/>
       <c r="E59" s="94"/>
       <c r="F59" s="59"/>
       <c r="G59" s="78"/>
@@ -7267,9 +7203,9 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="91"/>
-      <c r="B60" s="278"/>
+      <c r="B60" s="308"/>
       <c r="C60" s="92"/>
-      <c r="D60" s="304"/>
+      <c r="D60" s="269"/>
       <c r="E60" s="94"/>
       <c r="F60" s="59"/>
       <c r="G60" s="78"/>
@@ -7298,7 +7234,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="91"/>
-      <c r="B61" s="278"/>
+      <c r="B61" s="308"/>
       <c r="C61" s="92"/>
       <c r="D61" s="95"/>
       <c r="E61" s="96"/>
@@ -7329,9 +7265,9 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="91"/>
-      <c r="B62" s="278"/>
+      <c r="B62" s="308"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="306"/>
+      <c r="D62" s="273"/>
       <c r="E62" s="90"/>
       <c r="F62" s="78"/>
       <c r="G62" s="78"/>
@@ -7360,9 +7296,9 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="91"/>
-      <c r="B63" s="278"/>
+      <c r="B63" s="308"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="304"/>
+      <c r="D63" s="269"/>
       <c r="E63" s="90"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -7391,7 +7327,7 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="91"/>
-      <c r="B64" s="278"/>
+      <c r="B64" s="308"/>
       <c r="C64" s="92"/>
       <c r="D64" s="97"/>
       <c r="E64" s="93"/>
@@ -7422,9 +7358,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="91"/>
-      <c r="B65" s="278"/>
+      <c r="B65" s="308"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="307"/>
+      <c r="D65" s="274"/>
       <c r="E65" s="93"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -7453,9 +7389,9 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="91"/>
-      <c r="B66" s="278"/>
+      <c r="B66" s="308"/>
       <c r="C66" s="92"/>
-      <c r="D66" s="269"/>
+      <c r="D66" s="268"/>
       <c r="E66" s="93"/>
       <c r="F66" s="78"/>
       <c r="G66" s="78"/>
@@ -7484,9 +7420,9 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="91"/>
-      <c r="B67" s="278"/>
+      <c r="B67" s="308"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="269"/>
+      <c r="D67" s="268"/>
       <c r="E67" s="94"/>
       <c r="F67" s="59"/>
       <c r="G67" s="78"/>
@@ -7515,9 +7451,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="91"/>
-      <c r="B68" s="278"/>
+      <c r="B68" s="308"/>
       <c r="C68" s="92"/>
-      <c r="D68" s="269"/>
+      <c r="D68" s="268"/>
       <c r="E68" s="90"/>
       <c r="F68" s="78"/>
       <c r="G68" s="78"/>
@@ -7546,9 +7482,9 @@
     </row>
     <row r="69" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="91"/>
-      <c r="B69" s="278"/>
+      <c r="B69" s="308"/>
       <c r="C69" s="92"/>
-      <c r="D69" s="269"/>
+      <c r="D69" s="268"/>
       <c r="E69" s="90"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
@@ -7577,9 +7513,9 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="91"/>
-      <c r="B70" s="278"/>
+      <c r="B70" s="308"/>
       <c r="C70" s="92"/>
-      <c r="D70" s="269"/>
+      <c r="D70" s="268"/>
       <c r="E70" s="93"/>
       <c r="F70" s="78"/>
       <c r="G70" s="78"/>
@@ -7608,9 +7544,9 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="91"/>
-      <c r="B71" s="278"/>
+      <c r="B71" s="308"/>
       <c r="C71" s="92"/>
-      <c r="D71" s="269"/>
+      <c r="D71" s="268"/>
       <c r="E71" s="93"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -7639,9 +7575,9 @@
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="91"/>
-      <c r="B72" s="278"/>
+      <c r="B72" s="308"/>
       <c r="C72" s="92"/>
-      <c r="D72" s="269"/>
+      <c r="D72" s="268"/>
       <c r="E72" s="93"/>
       <c r="F72" s="78"/>
       <c r="G72" s="78"/>
@@ -7670,9 +7606,9 @@
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="91"/>
-      <c r="B73" s="278"/>
+      <c r="B73" s="308"/>
       <c r="C73" s="92"/>
-      <c r="D73" s="269"/>
+      <c r="D73" s="268"/>
       <c r="E73" s="94"/>
       <c r="F73" s="59"/>
       <c r="G73" s="78"/>
@@ -7701,9 +7637,9 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="91"/>
-      <c r="B74" s="278"/>
+      <c r="B74" s="308"/>
       <c r="C74" s="92"/>
-      <c r="D74" s="269"/>
+      <c r="D74" s="268"/>
       <c r="E74" s="96"/>
       <c r="F74" s="83"/>
       <c r="G74" s="83"/>
@@ -7732,9 +7668,9 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="91"/>
-      <c r="B75" s="278"/>
+      <c r="B75" s="308"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="304"/>
+      <c r="D75" s="269"/>
       <c r="E75" s="90"/>
       <c r="F75" s="78"/>
       <c r="G75" s="78"/>
@@ -7763,7 +7699,7 @@
     </row>
     <row r="76" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="91"/>
-      <c r="B76" s="278"/>
+      <c r="B76" s="308"/>
       <c r="C76" s="92"/>
       <c r="D76" s="97"/>
       <c r="E76" s="90"/>
@@ -7794,9 +7730,9 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="91"/>
-      <c r="B77" s="278"/>
+      <c r="B77" s="308"/>
       <c r="C77" s="92"/>
-      <c r="D77" s="311"/>
+      <c r="D77" s="278"/>
       <c r="E77" s="93"/>
       <c r="F77" s="78"/>
       <c r="G77" s="78"/>
@@ -7825,9 +7761,9 @@
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="91"/>
-      <c r="B78" s="278"/>
+      <c r="B78" s="308"/>
       <c r="C78" s="92"/>
-      <c r="D78" s="312"/>
+      <c r="D78" s="279"/>
       <c r="E78" s="93"/>
       <c r="F78" s="78"/>
       <c r="G78" s="78"/>
@@ -7856,9 +7792,9 @@
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="91"/>
-      <c r="B79" s="278"/>
+      <c r="B79" s="308"/>
       <c r="C79" s="92"/>
-      <c r="D79" s="312"/>
+      <c r="D79" s="279"/>
       <c r="E79" s="93"/>
       <c r="F79" s="78"/>
       <c r="G79" s="78"/>
@@ -7887,9 +7823,9 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="91"/>
-      <c r="B80" s="278"/>
+      <c r="B80" s="308"/>
       <c r="C80" s="92"/>
-      <c r="D80" s="312"/>
+      <c r="D80" s="279"/>
       <c r="E80" s="94"/>
       <c r="F80" s="59"/>
       <c r="G80" s="78"/>
@@ -7918,9 +7854,9 @@
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
       <c r="A81" s="99"/>
-      <c r="B81" s="278"/>
+      <c r="B81" s="308"/>
       <c r="C81" s="100"/>
-      <c r="D81" s="312"/>
+      <c r="D81" s="279"/>
       <c r="E81" s="101"/>
       <c r="F81" s="102"/>
       <c r="G81" s="102"/>
@@ -7949,9 +7885,9 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
       <c r="A82" s="105"/>
-      <c r="B82" s="278"/>
+      <c r="B82" s="308"/>
       <c r="C82" s="100"/>
-      <c r="D82" s="312"/>
+      <c r="D82" s="279"/>
       <c r="E82" s="106"/>
       <c r="F82" s="107"/>
       <c r="G82" s="108"/>
@@ -7980,9 +7916,9 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="105"/>
-      <c r="B83" s="278"/>
+      <c r="B83" s="308"/>
       <c r="C83" s="100"/>
-      <c r="D83" s="312"/>
+      <c r="D83" s="279"/>
       <c r="E83" s="112"/>
       <c r="F83" s="113"/>
       <c r="G83" s="113"/>
@@ -8011,9 +7947,9 @@
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
       <c r="A84" s="105"/>
-      <c r="B84" s="278"/>
+      <c r="B84" s="308"/>
       <c r="C84" s="100"/>
-      <c r="D84" s="312"/>
+      <c r="D84" s="279"/>
       <c r="E84" s="112"/>
       <c r="F84" s="113"/>
       <c r="G84" s="113"/>
@@ -8042,9 +7978,9 @@
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
       <c r="A85" s="105"/>
-      <c r="B85" s="278"/>
+      <c r="B85" s="308"/>
       <c r="C85" s="100"/>
-      <c r="D85" s="312"/>
+      <c r="D85" s="279"/>
       <c r="E85" s="116"/>
       <c r="F85" s="113"/>
       <c r="G85" s="113"/>
@@ -8073,9 +8009,9 @@
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
       <c r="A86" s="105"/>
-      <c r="B86" s="278"/>
+      <c r="B86" s="308"/>
       <c r="C86" s="100"/>
-      <c r="D86" s="312"/>
+      <c r="D86" s="279"/>
       <c r="E86" s="117"/>
       <c r="F86" s="107"/>
       <c r="G86" s="108"/>
@@ -8104,7 +8040,7 @@
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
       <c r="A87" s="105"/>
-      <c r="B87" s="278"/>
+      <c r="B87" s="308"/>
       <c r="C87" s="100"/>
       <c r="D87" s="118"/>
       <c r="E87" s="106"/>
@@ -8135,9 +8071,9 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
       <c r="A88" s="105"/>
-      <c r="B88" s="278"/>
+      <c r="B88" s="308"/>
       <c r="C88" s="100"/>
-      <c r="D88" s="292"/>
+      <c r="D88" s="280"/>
       <c r="E88" s="119"/>
       <c r="F88" s="107"/>
       <c r="G88" s="108"/>
@@ -8166,9 +8102,9 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="105"/>
-      <c r="B89" s="278"/>
+      <c r="B89" s="308"/>
       <c r="C89" s="100"/>
-      <c r="D89" s="280"/>
+      <c r="D89" s="281"/>
       <c r="E89" s="121"/>
       <c r="F89" s="113"/>
       <c r="G89" s="113"/>
@@ -8197,7 +8133,7 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
       <c r="A90" s="105"/>
-      <c r="B90" s="278"/>
+      <c r="B90" s="308"/>
       <c r="C90" s="100"/>
       <c r="D90" s="9"/>
       <c r="E90" s="122"/>
@@ -8228,9 +8164,9 @@
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
       <c r="A91" s="105"/>
-      <c r="B91" s="278"/>
+      <c r="B91" s="308"/>
       <c r="C91" s="100"/>
-      <c r="D91" s="313"/>
+      <c r="D91" s="282"/>
       <c r="E91" s="121"/>
       <c r="F91" s="113"/>
       <c r="G91" s="113"/>
@@ -8259,9 +8195,9 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
       <c r="A92" s="105"/>
-      <c r="B92" s="278"/>
+      <c r="B92" s="308"/>
       <c r="C92" s="100"/>
-      <c r="D92" s="280"/>
+      <c r="D92" s="281"/>
       <c r="E92" s="119"/>
       <c r="F92" s="113"/>
       <c r="G92" s="113"/>
@@ -8290,9 +8226,9 @@
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
       <c r="A93" s="105"/>
-      <c r="B93" s="278"/>
+      <c r="B93" s="308"/>
       <c r="C93" s="100"/>
-      <c r="D93" s="280"/>
+      <c r="D93" s="281"/>
       <c r="E93" s="121"/>
       <c r="F93" s="113"/>
       <c r="G93" s="113"/>
@@ -8321,9 +8257,9 @@
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
       <c r="A94" s="105"/>
-      <c r="B94" s="278"/>
+      <c r="B94" s="308"/>
       <c r="C94" s="100"/>
-      <c r="D94" s="280"/>
+      <c r="D94" s="281"/>
       <c r="E94" s="119"/>
       <c r="F94" s="107"/>
       <c r="G94" s="108"/>
@@ -8352,9 +8288,9 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="105"/>
-      <c r="B95" s="278"/>
+      <c r="B95" s="308"/>
       <c r="C95" s="100"/>
-      <c r="D95" s="280"/>
+      <c r="D95" s="281"/>
       <c r="E95" s="123"/>
       <c r="F95" s="124"/>
       <c r="G95" s="115"/>
@@ -8383,9 +8319,9 @@
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="105"/>
-      <c r="B96" s="278"/>
+      <c r="B96" s="308"/>
       <c r="C96" s="100"/>
-      <c r="D96" s="280"/>
+      <c r="D96" s="281"/>
       <c r="E96" s="119"/>
       <c r="F96" s="125"/>
       <c r="G96" s="108"/>
@@ -8414,9 +8350,9 @@
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="105"/>
-      <c r="B97" s="278"/>
+      <c r="B97" s="308"/>
       <c r="C97" s="100"/>
-      <c r="D97" s="283"/>
+      <c r="D97" s="266"/>
       <c r="E97" s="123"/>
       <c r="F97" s="126"/>
       <c r="G97" s="115"/>
@@ -8445,7 +8381,7 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="105"/>
-      <c r="B98" s="278"/>
+      <c r="B98" s="308"/>
       <c r="C98" s="100"/>
       <c r="D98" s="127"/>
       <c r="E98" s="123"/>
@@ -8476,9 +8412,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="105"/>
-      <c r="B99" s="278"/>
+      <c r="B99" s="308"/>
       <c r="C99" s="100"/>
-      <c r="D99" s="314"/>
+      <c r="D99" s="283"/>
       <c r="E99" s="128"/>
       <c r="F99" s="129"/>
       <c r="G99" s="115"/>
@@ -8507,9 +8443,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
       <c r="A100" s="105"/>
-      <c r="B100" s="278"/>
+      <c r="B100" s="308"/>
       <c r="C100" s="100"/>
-      <c r="D100" s="312"/>
+      <c r="D100" s="279"/>
       <c r="E100" s="123"/>
       <c r="F100" s="129"/>
       <c r="G100" s="115"/>
@@ -8538,9 +8474,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="105"/>
-      <c r="B101" s="278"/>
+      <c r="B101" s="308"/>
       <c r="C101" s="100"/>
-      <c r="D101" s="312"/>
+      <c r="D101" s="279"/>
       <c r="E101" s="130"/>
       <c r="F101" s="120"/>
       <c r="G101" s="120"/>
@@ -8569,9 +8505,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
       <c r="A102" s="105"/>
-      <c r="B102" s="278"/>
+      <c r="B102" s="308"/>
       <c r="C102" s="100"/>
-      <c r="D102" s="312"/>
+      <c r="D102" s="279"/>
       <c r="E102" s="130"/>
       <c r="F102" s="120"/>
       <c r="G102" s="120"/>
@@ -8600,9 +8536,9 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
       <c r="A103" s="105"/>
-      <c r="B103" s="278"/>
+      <c r="B103" s="308"/>
       <c r="C103" s="100"/>
-      <c r="D103" s="312"/>
+      <c r="D103" s="279"/>
       <c r="E103" s="130"/>
       <c r="F103" s="120"/>
       <c r="G103" s="120"/>
@@ -8631,9 +8567,9 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
       <c r="A104" s="105"/>
-      <c r="B104" s="278"/>
+      <c r="B104" s="308"/>
       <c r="C104" s="100"/>
-      <c r="D104" s="312"/>
+      <c r="D104" s="279"/>
       <c r="E104" s="130"/>
       <c r="F104" s="120"/>
       <c r="G104" s="120"/>
@@ -8662,9 +8598,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
       <c r="A105" s="105"/>
-      <c r="B105" s="278"/>
+      <c r="B105" s="308"/>
       <c r="C105" s="100"/>
-      <c r="D105" s="312"/>
+      <c r="D105" s="279"/>
       <c r="E105" s="130"/>
       <c r="F105" s="120"/>
       <c r="G105" s="120"/>
@@ -8693,9 +8629,9 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
       <c r="A106" s="105"/>
-      <c r="B106" s="278"/>
+      <c r="B106" s="308"/>
       <c r="C106" s="100"/>
-      <c r="D106" s="312"/>
+      <c r="D106" s="279"/>
       <c r="E106" s="130"/>
       <c r="F106" s="120"/>
       <c r="G106" s="120"/>
@@ -8724,9 +8660,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="105"/>
-      <c r="B107" s="278"/>
+      <c r="B107" s="308"/>
       <c r="C107" s="100"/>
-      <c r="D107" s="315"/>
+      <c r="D107" s="284"/>
       <c r="E107" s="130"/>
       <c r="F107" s="120"/>
       <c r="G107" s="120"/>
@@ -8755,7 +8691,7 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
       <c r="A108" s="105"/>
-      <c r="B108" s="278"/>
+      <c r="B108" s="308"/>
       <c r="C108" s="131"/>
       <c r="D108" s="132"/>
       <c r="E108" s="130"/>
@@ -8786,7 +8722,7 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
       <c r="A109" s="105"/>
-      <c r="B109" s="278"/>
+      <c r="B109" s="308"/>
       <c r="C109" s="133"/>
       <c r="D109" s="132"/>
       <c r="E109" s="130"/>
@@ -8817,7 +8753,7 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
       <c r="A110" s="105"/>
-      <c r="B110" s="278"/>
+      <c r="B110" s="308"/>
       <c r="C110" s="133"/>
       <c r="D110" s="134"/>
       <c r="E110" s="130"/>
@@ -8848,9 +8784,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="105"/>
-      <c r="B111" s="278"/>
+      <c r="B111" s="308"/>
       <c r="C111" s="133"/>
-      <c r="D111" s="302"/>
+      <c r="D111" s="265"/>
       <c r="E111" s="136"/>
       <c r="F111" s="120"/>
       <c r="G111" s="120"/>
@@ -8879,9 +8815,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="105"/>
-      <c r="B112" s="278"/>
+      <c r="B112" s="308"/>
       <c r="C112" s="133"/>
-      <c r="D112" s="283"/>
+      <c r="D112" s="266"/>
       <c r="E112" s="136"/>
       <c r="F112" s="120"/>
       <c r="G112" s="120"/>
@@ -8910,7 +8846,7 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="105"/>
-      <c r="B113" s="278"/>
+      <c r="B113" s="308"/>
       <c r="C113" s="133"/>
       <c r="D113" s="137"/>
       <c r="E113" s="130"/>
@@ -8941,7 +8877,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="105"/>
-      <c r="B114" s="278"/>
+      <c r="B114" s="308"/>
       <c r="C114" s="133"/>
       <c r="D114" s="138"/>
       <c r="E114" s="130"/>
@@ -8972,7 +8908,7 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
       <c r="A115" s="105"/>
-      <c r="B115" s="278"/>
+      <c r="B115" s="308"/>
       <c r="C115" s="133"/>
       <c r="D115" s="138"/>
       <c r="E115" s="139"/>
@@ -9003,7 +8939,7 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="105"/>
-      <c r="B116" s="278"/>
+      <c r="B116" s="308"/>
       <c r="C116" s="133"/>
       <c r="D116" s="138"/>
       <c r="E116" s="130"/>
@@ -9034,7 +8970,7 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="105"/>
-      <c r="B117" s="278"/>
+      <c r="B117" s="308"/>
       <c r="C117" s="133"/>
       <c r="D117" s="138"/>
       <c r="E117" s="130"/>
@@ -9065,7 +9001,7 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="105"/>
-      <c r="B118" s="278"/>
+      <c r="B118" s="308"/>
       <c r="C118" s="133"/>
       <c r="D118" s="138"/>
       <c r="E118" s="130"/>
@@ -9096,7 +9032,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="105"/>
-      <c r="B119" s="278"/>
+      <c r="B119" s="308"/>
       <c r="C119" s="133"/>
       <c r="D119" s="138"/>
       <c r="E119" s="130"/>
@@ -9127,7 +9063,7 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="105"/>
-      <c r="B120" s="278"/>
+      <c r="B120" s="308"/>
       <c r="C120" s="133"/>
       <c r="D120" s="138"/>
       <c r="E120" s="139"/>
@@ -9158,7 +9094,7 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="105"/>
-      <c r="B121" s="278"/>
+      <c r="B121" s="308"/>
       <c r="C121" s="133"/>
       <c r="D121" s="138"/>
       <c r="E121" s="139"/>
@@ -9189,7 +9125,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
       <c r="A122" s="105"/>
-      <c r="B122" s="278"/>
+      <c r="B122" s="308"/>
       <c r="C122" s="133"/>
       <c r="D122" s="138"/>
       <c r="E122" s="139"/>
@@ -9220,7 +9156,7 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1">
       <c r="A123" s="105"/>
-      <c r="B123" s="278"/>
+      <c r="B123" s="308"/>
       <c r="C123" s="133"/>
       <c r="D123" s="138"/>
       <c r="E123" s="130"/>
@@ -9251,7 +9187,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1">
       <c r="A124" s="105"/>
-      <c r="B124" s="278"/>
+      <c r="B124" s="308"/>
       <c r="C124" s="133"/>
       <c r="D124" s="138"/>
       <c r="E124" s="130"/>
@@ -9282,7 +9218,7 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="105"/>
-      <c r="B125" s="278"/>
+      <c r="B125" s="308"/>
       <c r="C125" s="133"/>
       <c r="D125" s="138"/>
       <c r="E125" s="130"/>
@@ -9313,7 +9249,7 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="105"/>
-      <c r="B126" s="278"/>
+      <c r="B126" s="308"/>
       <c r="C126" s="133"/>
       <c r="D126" s="138"/>
       <c r="E126" s="130"/>
@@ -9344,7 +9280,7 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
       <c r="A127" s="105"/>
-      <c r="B127" s="278"/>
+      <c r="B127" s="308"/>
       <c r="C127" s="133"/>
       <c r="D127" s="138"/>
       <c r="E127" s="130"/>
@@ -9375,7 +9311,7 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
       <c r="A128" s="105"/>
-      <c r="B128" s="278"/>
+      <c r="B128" s="308"/>
       <c r="C128" s="133"/>
       <c r="D128" s="138"/>
       <c r="E128" s="130"/>
@@ -9406,7 +9342,7 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1">
       <c r="A129" s="144"/>
-      <c r="B129" s="278"/>
+      <c r="B129" s="308"/>
       <c r="C129" s="133"/>
       <c r="D129" s="145"/>
       <c r="E129" s="146"/>
@@ -9437,7 +9373,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1">
       <c r="A130" s="144"/>
-      <c r="B130" s="278"/>
+      <c r="B130" s="308"/>
       <c r="C130" s="133"/>
       <c r="D130" s="147"/>
       <c r="E130" s="130"/>
@@ -9468,7 +9404,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1">
       <c r="A131" s="144"/>
-      <c r="B131" s="278"/>
+      <c r="B131" s="308"/>
       <c r="C131" s="133"/>
       <c r="D131" s="147"/>
       <c r="E131" s="130"/>
@@ -9499,7 +9435,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1">
       <c r="A132" s="144"/>
-      <c r="B132" s="278"/>
+      <c r="B132" s="308"/>
       <c r="C132" s="133"/>
       <c r="D132" s="147"/>
       <c r="E132" s="148"/>
@@ -9530,7 +9466,7 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1">
       <c r="A133" s="144"/>
-      <c r="B133" s="278"/>
+      <c r="B133" s="308"/>
       <c r="C133" s="133"/>
       <c r="D133" s="147"/>
       <c r="E133" s="149"/>
@@ -9561,7 +9497,7 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1">
       <c r="A134" s="144"/>
-      <c r="B134" s="278"/>
+      <c r="B134" s="308"/>
       <c r="C134" s="133"/>
       <c r="D134" s="147"/>
       <c r="E134" s="149"/>
@@ -9592,7 +9528,7 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1">
       <c r="A135" s="144"/>
-      <c r="B135" s="278"/>
+      <c r="B135" s="308"/>
       <c r="C135" s="133"/>
       <c r="D135" s="147"/>
       <c r="E135" s="149"/>
@@ -9623,7 +9559,7 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1">
       <c r="A136" s="144"/>
-      <c r="B136" s="278"/>
+      <c r="B136" s="308"/>
       <c r="C136" s="133"/>
       <c r="D136" s="147"/>
       <c r="E136" s="149"/>
@@ -9654,7 +9590,7 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1">
       <c r="A137" s="144"/>
-      <c r="B137" s="278"/>
+      <c r="B137" s="308"/>
       <c r="C137" s="133"/>
       <c r="D137" s="147"/>
       <c r="E137" s="130"/>
@@ -9685,7 +9621,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1">
       <c r="A138" s="144"/>
-      <c r="B138" s="278"/>
+      <c r="B138" s="308"/>
       <c r="C138" s="133"/>
       <c r="D138" s="147"/>
       <c r="E138" s="130"/>
@@ -9716,7 +9652,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1">
       <c r="A139" s="144"/>
-      <c r="B139" s="278"/>
+      <c r="B139" s="308"/>
       <c r="C139" s="133"/>
       <c r="D139" s="147"/>
       <c r="E139" s="130"/>
@@ -9747,7 +9683,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1">
       <c r="A140" s="144"/>
-      <c r="B140" s="278"/>
+      <c r="B140" s="308"/>
       <c r="C140" s="133"/>
       <c r="D140" s="147"/>
       <c r="E140" s="130"/>
@@ -9778,7 +9714,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1">
       <c r="A141" s="144"/>
-      <c r="B141" s="278"/>
+      <c r="B141" s="308"/>
       <c r="C141" s="133"/>
       <c r="D141" s="147"/>
       <c r="E141" s="146"/>
@@ -9809,7 +9745,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1">
       <c r="A142" s="144"/>
-      <c r="B142" s="278"/>
+      <c r="B142" s="308"/>
       <c r="C142" s="133"/>
       <c r="D142" s="150"/>
       <c r="E142" s="151"/>
@@ -9840,7 +9776,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1">
       <c r="A143" s="144"/>
-      <c r="B143" s="278"/>
+      <c r="B143" s="308"/>
       <c r="C143" s="133"/>
       <c r="D143" s="152"/>
       <c r="E143" s="146"/>
@@ -9871,9 +9807,9 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
       <c r="A144" s="144"/>
-      <c r="B144" s="278"/>
+      <c r="B144" s="308"/>
       <c r="C144" s="133"/>
-      <c r="D144" s="279"/>
+      <c r="D144" s="309"/>
       <c r="E144" s="130"/>
       <c r="F144" s="120"/>
       <c r="G144" s="120"/>
@@ -9882,7 +9818,7 @@
       <c r="J144" s="120"/>
       <c r="K144" s="120"/>
       <c r="L144" s="111"/>
-      <c r="M144" s="282"/>
+      <c r="M144" s="295"/>
       <c r="N144" s="104"/>
       <c r="O144" s="104"/>
       <c r="P144" s="104"/>
@@ -9902,9 +9838,9 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
       <c r="A145" s="105"/>
-      <c r="B145" s="278"/>
+      <c r="B145" s="308"/>
       <c r="C145" s="133"/>
-      <c r="D145" s="280"/>
+      <c r="D145" s="281"/>
       <c r="E145" s="130"/>
       <c r="F145" s="120"/>
       <c r="G145" s="120"/>
@@ -9913,7 +9849,7 @@
       <c r="J145" s="120"/>
       <c r="K145" s="120"/>
       <c r="L145" s="111"/>
-      <c r="M145" s="280"/>
+      <c r="M145" s="281"/>
       <c r="N145" s="104"/>
       <c r="O145" s="104"/>
       <c r="P145" s="104"/>
@@ -9933,9 +9869,9 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
       <c r="A146" s="105"/>
-      <c r="B146" s="278"/>
+      <c r="B146" s="308"/>
       <c r="C146" s="133"/>
-      <c r="D146" s="280"/>
+      <c r="D146" s="281"/>
       <c r="E146" s="148"/>
       <c r="F146" s="120"/>
       <c r="G146" s="120"/>
@@ -9944,7 +9880,7 @@
       <c r="J146" s="120"/>
       <c r="K146" s="120"/>
       <c r="L146" s="111"/>
-      <c r="M146" s="280"/>
+      <c r="M146" s="281"/>
       <c r="N146" s="104"/>
       <c r="O146" s="104"/>
       <c r="P146" s="104"/>
@@ -9964,9 +9900,9 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
       <c r="A147" s="105"/>
-      <c r="B147" s="278"/>
+      <c r="B147" s="308"/>
       <c r="C147" s="133"/>
-      <c r="D147" s="280"/>
+      <c r="D147" s="281"/>
       <c r="E147" s="149"/>
       <c r="F147" s="120"/>
       <c r="G147" s="120"/>
@@ -9975,7 +9911,7 @@
       <c r="J147" s="120"/>
       <c r="K147" s="120"/>
       <c r="L147" s="111"/>
-      <c r="M147" s="280"/>
+      <c r="M147" s="281"/>
       <c r="N147" s="104"/>
       <c r="O147" s="104"/>
       <c r="P147" s="104"/>
@@ -9995,9 +9931,9 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1">
       <c r="A148" s="105"/>
-      <c r="B148" s="278"/>
+      <c r="B148" s="308"/>
       <c r="C148" s="133"/>
-      <c r="D148" s="280"/>
+      <c r="D148" s="281"/>
       <c r="E148" s="149"/>
       <c r="F148" s="120"/>
       <c r="G148" s="120"/>
@@ -10006,7 +9942,7 @@
       <c r="J148" s="120"/>
       <c r="K148" s="120"/>
       <c r="L148" s="111"/>
-      <c r="M148" s="280"/>
+      <c r="M148" s="281"/>
       <c r="N148" s="104"/>
       <c r="O148" s="104"/>
       <c r="P148" s="104"/>
@@ -10026,9 +9962,9 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
       <c r="A149" s="105"/>
-      <c r="B149" s="278"/>
+      <c r="B149" s="308"/>
       <c r="C149" s="133"/>
-      <c r="D149" s="280"/>
+      <c r="D149" s="281"/>
       <c r="E149" s="149"/>
       <c r="F149" s="120"/>
       <c r="G149" s="120"/>
@@ -10037,7 +9973,7 @@
       <c r="J149" s="120"/>
       <c r="K149" s="120"/>
       <c r="L149" s="111"/>
-      <c r="M149" s="280"/>
+      <c r="M149" s="281"/>
       <c r="N149" s="104"/>
       <c r="O149" s="104"/>
       <c r="P149" s="104"/>
@@ -10057,9 +9993,9 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
       <c r="A150" s="105"/>
-      <c r="B150" s="278"/>
+      <c r="B150" s="308"/>
       <c r="C150" s="133"/>
-      <c r="D150" s="280"/>
+      <c r="D150" s="281"/>
       <c r="E150" s="149"/>
       <c r="F150" s="120"/>
       <c r="G150" s="120"/>
@@ -10068,7 +10004,7 @@
       <c r="J150" s="120"/>
       <c r="K150" s="120"/>
       <c r="L150" s="111"/>
-      <c r="M150" s="280"/>
+      <c r="M150" s="281"/>
       <c r="N150" s="104"/>
       <c r="O150" s="104"/>
       <c r="P150" s="104"/>
@@ -10088,9 +10024,9 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
       <c r="A151" s="105"/>
-      <c r="B151" s="278"/>
+      <c r="B151" s="308"/>
       <c r="C151" s="133"/>
-      <c r="D151" s="280"/>
+      <c r="D151" s="281"/>
       <c r="E151" s="130"/>
       <c r="F151" s="120"/>
       <c r="G151" s="120"/>
@@ -10099,7 +10035,7 @@
       <c r="J151" s="120"/>
       <c r="K151" s="120"/>
       <c r="L151" s="111"/>
-      <c r="M151" s="283"/>
+      <c r="M151" s="266"/>
       <c r="N151" s="104"/>
       <c r="O151" s="104"/>
       <c r="P151" s="104"/>
@@ -10119,9 +10055,9 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1">
       <c r="A152" s="105"/>
-      <c r="B152" s="278"/>
+      <c r="B152" s="308"/>
       <c r="C152" s="133"/>
-      <c r="D152" s="280"/>
+      <c r="D152" s="281"/>
       <c r="E152" s="130"/>
       <c r="F152" s="120"/>
       <c r="G152" s="120"/>
@@ -10150,9 +10086,9 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
       <c r="A153" s="105"/>
-      <c r="B153" s="278"/>
+      <c r="B153" s="308"/>
       <c r="C153" s="133"/>
-      <c r="D153" s="280"/>
+      <c r="D153" s="281"/>
       <c r="E153" s="130"/>
       <c r="F153" s="120"/>
       <c r="G153" s="120"/>
@@ -10181,9 +10117,9 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A154" s="105"/>
-      <c r="B154" s="270"/>
+      <c r="B154" s="300"/>
       <c r="C154" s="133"/>
-      <c r="D154" s="281"/>
+      <c r="D154" s="310"/>
       <c r="E154" s="130"/>
       <c r="F154" s="120"/>
       <c r="G154" s="120"/>
@@ -10247,7 +10183,7 @@
       <c r="C156" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="D156" s="289"/>
+      <c r="D156" s="294"/>
       <c r="E156" s="130"/>
       <c r="F156" s="120"/>
       <c r="G156" s="143"/>
@@ -10278,7 +10214,7 @@
       <c r="A157" s="154"/>
       <c r="B157" s="152"/>
       <c r="C157" s="159"/>
-      <c r="D157" s="280"/>
+      <c r="D157" s="281"/>
       <c r="E157" s="130"/>
       <c r="F157" s="120"/>
       <c r="G157" s="143"/>
@@ -10309,7 +10245,7 @@
       <c r="A158" s="154"/>
       <c r="B158" s="152"/>
       <c r="C158" s="159"/>
-      <c r="D158" s="280"/>
+      <c r="D158" s="281"/>
       <c r="E158" s="130"/>
       <c r="F158" s="120"/>
       <c r="G158" s="143"/>
@@ -10340,7 +10276,7 @@
       <c r="A159" s="154"/>
       <c r="B159" s="152"/>
       <c r="C159" s="152"/>
-      <c r="D159" s="280"/>
+      <c r="D159" s="281"/>
       <c r="E159" s="139"/>
       <c r="F159" s="120"/>
       <c r="G159" s="143"/>
@@ -10371,7 +10307,7 @@
       <c r="A160" s="154"/>
       <c r="B160" s="157"/>
       <c r="C160" s="152"/>
-      <c r="D160" s="280"/>
+      <c r="D160" s="281"/>
       <c r="E160" s="139"/>
       <c r="F160" s="120"/>
       <c r="G160" s="143"/>
@@ -10402,7 +10338,7 @@
       <c r="A161" s="154"/>
       <c r="B161" s="157"/>
       <c r="C161" s="152"/>
-      <c r="D161" s="280"/>
+      <c r="D161" s="281"/>
       <c r="E161" s="139"/>
       <c r="F161" s="120"/>
       <c r="G161" s="143"/>
@@ -10433,7 +10369,7 @@
       <c r="A162" s="154"/>
       <c r="B162" s="157"/>
       <c r="C162" s="152"/>
-      <c r="D162" s="280"/>
+      <c r="D162" s="281"/>
       <c r="E162" s="130"/>
       <c r="F162" s="120"/>
       <c r="G162" s="143"/>
@@ -10464,7 +10400,7 @@
       <c r="A163" s="154"/>
       <c r="B163" s="157"/>
       <c r="C163" s="152"/>
-      <c r="D163" s="280"/>
+      <c r="D163" s="281"/>
       <c r="E163" s="130"/>
       <c r="F163" s="120"/>
       <c r="G163" s="143"/>
@@ -10495,7 +10431,7 @@
       <c r="A164" s="154"/>
       <c r="B164" s="157"/>
       <c r="C164" s="157"/>
-      <c r="D164" s="283"/>
+      <c r="D164" s="266"/>
       <c r="E164" s="130"/>
       <c r="F164" s="120"/>
       <c r="G164" s="143"/>
@@ -11835,8 +11771,8 @@
       <c r="H207" s="178"/>
       <c r="I207" s="178"/>
       <c r="J207" s="178"/>
-      <c r="K207" s="290"/>
-      <c r="L207" s="282"/>
+      <c r="K207" s="287"/>
+      <c r="L207" s="295"/>
       <c r="M207" s="173"/>
       <c r="N207" s="104"/>
       <c r="O207" s="104"/>
@@ -11866,8 +11802,8 @@
       <c r="H208" s="180"/>
       <c r="I208" s="180"/>
       <c r="J208" s="180"/>
-      <c r="K208" s="280"/>
-      <c r="L208" s="280"/>
+      <c r="K208" s="281"/>
+      <c r="L208" s="281"/>
       <c r="M208" s="173"/>
       <c r="N208" s="104"/>
       <c r="O208" s="104"/>
@@ -11897,8 +11833,8 @@
       <c r="H209" s="102"/>
       <c r="I209" s="102"/>
       <c r="J209" s="102"/>
-      <c r="K209" s="283"/>
-      <c r="L209" s="283"/>
+      <c r="K209" s="266"/>
+      <c r="L209" s="266"/>
       <c r="M209" s="173"/>
       <c r="N209" s="104"/>
       <c r="O209" s="104"/>
@@ -12106,9 +12042,9 @@
     <row r="216" spans="1:29" ht="15.75" customHeight="1">
       <c r="A216" s="154"/>
       <c r="B216" s="166"/>
-      <c r="C216" s="291"/>
+      <c r="C216" s="288"/>
       <c r="D216" s="152"/>
-      <c r="E216" s="292"/>
+      <c r="E216" s="280"/>
       <c r="F216" s="113"/>
       <c r="G216" s="113"/>
       <c r="H216" s="113"/>
@@ -12137,9 +12073,9 @@
     <row r="217" spans="1:29" ht="15.75" customHeight="1">
       <c r="A217" s="154"/>
       <c r="B217" s="166"/>
-      <c r="C217" s="280"/>
+      <c r="C217" s="281"/>
       <c r="D217" s="152"/>
-      <c r="E217" s="293"/>
+      <c r="E217" s="296"/>
       <c r="F217" s="113"/>
       <c r="G217" s="113"/>
       <c r="H217" s="113"/>
@@ -12168,9 +12104,9 @@
     <row r="218" spans="1:29" ht="15.75" customHeight="1">
       <c r="A218" s="154"/>
       <c r="B218" s="166"/>
-      <c r="C218" s="280"/>
+      <c r="C218" s="281"/>
       <c r="D218" s="152"/>
-      <c r="E218" s="294"/>
+      <c r="E218" s="297"/>
       <c r="F218" s="113"/>
       <c r="G218" s="113"/>
       <c r="H218" s="113"/>
@@ -12199,7 +12135,7 @@
     <row r="219" spans="1:29" ht="15.75" customHeight="1">
       <c r="A219" s="154"/>
       <c r="B219" s="166"/>
-      <c r="C219" s="280"/>
+      <c r="C219" s="281"/>
       <c r="D219" s="152"/>
       <c r="E219" s="121"/>
       <c r="F219" s="113"/>
@@ -12230,7 +12166,7 @@
     <row r="220" spans="1:29" ht="15.75" customHeight="1">
       <c r="A220" s="154"/>
       <c r="B220" s="166"/>
-      <c r="C220" s="280"/>
+      <c r="C220" s="281"/>
       <c r="D220" s="152"/>
       <c r="E220" s="121"/>
       <c r="F220" s="113"/>
@@ -12261,7 +12197,7 @@
     <row r="221" spans="1:29" ht="15.75" customHeight="1">
       <c r="A221" s="154"/>
       <c r="B221" s="166"/>
-      <c r="C221" s="280"/>
+      <c r="C221" s="281"/>
       <c r="D221" s="152"/>
       <c r="E221" s="121"/>
       <c r="F221" s="176"/>
@@ -12292,7 +12228,7 @@
     <row r="222" spans="1:29" ht="15.75" customHeight="1">
       <c r="A222" s="154"/>
       <c r="B222" s="166"/>
-      <c r="C222" s="283"/>
+      <c r="C222" s="266"/>
       <c r="D222" s="152"/>
       <c r="E222" s="121"/>
       <c r="F222" s="113"/>
@@ -12323,7 +12259,7 @@
     <row r="223" spans="1:29" ht="15.75" customHeight="1">
       <c r="A223" s="154"/>
       <c r="B223" s="166"/>
-      <c r="C223" s="295"/>
+      <c r="C223" s="286"/>
       <c r="D223" s="164"/>
       <c r="E223" s="121"/>
       <c r="F223" s="176"/>
@@ -12354,7 +12290,7 @@
     <row r="224" spans="1:29" ht="15.75" customHeight="1">
       <c r="A224" s="154"/>
       <c r="B224" s="166"/>
-      <c r="C224" s="283"/>
+      <c r="C224" s="266"/>
       <c r="D224" s="184"/>
       <c r="E224" s="121"/>
       <c r="F224" s="176"/>
@@ -12416,7 +12352,7 @@
     <row r="226" spans="1:29" ht="30" customHeight="1">
       <c r="A226" s="154"/>
       <c r="B226" s="166"/>
-      <c r="C226" s="295"/>
+      <c r="C226" s="286"/>
       <c r="D226" s="164"/>
       <c r="E226" s="121"/>
       <c r="F226" s="113"/>
@@ -12447,7 +12383,7 @@
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
       <c r="A227" s="154"/>
       <c r="B227" s="166"/>
-      <c r="C227" s="280"/>
+      <c r="C227" s="281"/>
       <c r="D227" s="165"/>
       <c r="E227" s="121"/>
       <c r="F227" s="113"/>
@@ -12478,7 +12414,7 @@
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
       <c r="A228" s="154"/>
       <c r="B228" s="166"/>
-      <c r="C228" s="280"/>
+      <c r="C228" s="281"/>
       <c r="D228" s="165"/>
       <c r="E228" s="121"/>
       <c r="F228" s="113"/>
@@ -12509,7 +12445,7 @@
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
       <c r="A229" s="154"/>
       <c r="B229" s="166"/>
-      <c r="C229" s="280"/>
+      <c r="C229" s="281"/>
       <c r="D229" s="165"/>
       <c r="E229" s="121"/>
       <c r="F229" s="176"/>
@@ -12540,7 +12476,7 @@
     <row r="230" spans="1:29" ht="15.75" customHeight="1">
       <c r="A230" s="154"/>
       <c r="B230" s="166"/>
-      <c r="C230" s="283"/>
+      <c r="C230" s="266"/>
       <c r="D230" s="165"/>
       <c r="E230" s="186"/>
       <c r="F230" s="113"/>
@@ -12920,7 +12856,7 @@
       <c r="H242" s="176"/>
       <c r="I242" s="176"/>
       <c r="J242" s="176"/>
-      <c r="K242" s="296"/>
+      <c r="K242" s="285"/>
       <c r="L242" s="111"/>
       <c r="M242" s="141"/>
       <c r="N242" s="104"/>
@@ -12951,7 +12887,7 @@
       <c r="H243" s="176"/>
       <c r="I243" s="176"/>
       <c r="J243" s="176"/>
-      <c r="K243" s="283"/>
+      <c r="K243" s="266"/>
       <c r="L243" s="111"/>
       <c r="M243" s="141"/>
       <c r="N243" s="104"/>
@@ -13036,7 +12972,7 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="154"/>
       <c r="B246" s="166"/>
-      <c r="C246" s="295"/>
+      <c r="C246" s="286"/>
       <c r="D246" s="164"/>
       <c r="E246" s="121"/>
       <c r="F246" s="176"/>
@@ -13044,7 +12980,7 @@
       <c r="H246" s="176"/>
       <c r="I246" s="176"/>
       <c r="J246" s="176"/>
-      <c r="K246" s="290"/>
+      <c r="K246" s="287"/>
       <c r="L246" s="111"/>
       <c r="M246" s="141"/>
       <c r="N246" s="104"/>
@@ -13067,7 +13003,7 @@
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
       <c r="A247" s="154"/>
       <c r="B247" s="166"/>
-      <c r="C247" s="283"/>
+      <c r="C247" s="266"/>
       <c r="D247" s="184"/>
       <c r="E247" s="121"/>
       <c r="F247" s="176"/>
@@ -13075,7 +13011,7 @@
       <c r="H247" s="176"/>
       <c r="I247" s="176"/>
       <c r="J247" s="176"/>
-      <c r="K247" s="283"/>
+      <c r="K247" s="266"/>
       <c r="L247" s="111"/>
       <c r="M247" s="141"/>
       <c r="N247" s="104"/>
@@ -13098,7 +13034,7 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
       <c r="A248" s="154"/>
       <c r="B248" s="166"/>
-      <c r="C248" s="291"/>
+      <c r="C248" s="288"/>
       <c r="D248" s="177"/>
       <c r="E248" s="139"/>
       <c r="F248" s="120"/>
@@ -13129,7 +13065,7 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="154"/>
       <c r="B249" s="166"/>
-      <c r="C249" s="283"/>
+      <c r="C249" s="266"/>
       <c r="D249" s="137"/>
       <c r="E249" s="139"/>
       <c r="F249" s="120"/>
@@ -13191,7 +13127,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="154"/>
       <c r="B251" s="166"/>
-      <c r="C251" s="295"/>
+      <c r="C251" s="286"/>
       <c r="D251" s="164"/>
       <c r="E251" s="139"/>
       <c r="F251" s="120"/>
@@ -13222,7 +13158,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="154"/>
       <c r="B252" s="166"/>
-      <c r="C252" s="280"/>
+      <c r="C252" s="281"/>
       <c r="D252" s="165"/>
       <c r="E252" s="139"/>
       <c r="F252" s="120"/>
@@ -13253,7 +13189,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="154"/>
       <c r="B253" s="166"/>
-      <c r="C253" s="283"/>
+      <c r="C253" s="266"/>
       <c r="D253" s="184"/>
       <c r="E253" s="139"/>
       <c r="F253" s="120"/>
@@ -13438,10 +13374,10 @@
     </row>
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="161"/>
-      <c r="B259" s="297"/>
-      <c r="C259" s="291"/>
+      <c r="B259" s="289"/>
+      <c r="C259" s="288"/>
       <c r="D259" s="152"/>
-      <c r="E259" s="291"/>
+      <c r="E259" s="288"/>
       <c r="F259" s="113"/>
       <c r="G259" s="113"/>
       <c r="H259" s="113"/>
@@ -13469,10 +13405,10 @@
     </row>
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="161"/>
-      <c r="B260" s="280"/>
-      <c r="C260" s="280"/>
+      <c r="B260" s="281"/>
+      <c r="C260" s="281"/>
       <c r="D260" s="152"/>
-      <c r="E260" s="298"/>
+      <c r="E260" s="290"/>
       <c r="F260" s="113"/>
       <c r="G260" s="113"/>
       <c r="H260" s="113"/>
@@ -13500,10 +13436,10 @@
     </row>
     <row r="261" spans="1:29" ht="15.75" customHeight="1">
       <c r="A261" s="161"/>
-      <c r="B261" s="280"/>
-      <c r="C261" s="280"/>
+      <c r="B261" s="281"/>
+      <c r="C261" s="281"/>
       <c r="D261" s="152"/>
-      <c r="E261" s="298"/>
+      <c r="E261" s="290"/>
       <c r="F261" s="113"/>
       <c r="G261" s="113"/>
       <c r="H261" s="113"/>
@@ -13531,10 +13467,10 @@
     </row>
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="161"/>
-      <c r="B262" s="280"/>
-      <c r="C262" s="280"/>
+      <c r="B262" s="281"/>
+      <c r="C262" s="281"/>
       <c r="D262" s="152"/>
-      <c r="E262" s="298"/>
+      <c r="E262" s="290"/>
       <c r="F262" s="113"/>
       <c r="G262" s="113"/>
       <c r="H262" s="113"/>
@@ -13562,10 +13498,10 @@
     </row>
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="161"/>
-      <c r="B263" s="280"/>
-      <c r="C263" s="280"/>
+      <c r="B263" s="281"/>
+      <c r="C263" s="281"/>
       <c r="D263" s="152"/>
-      <c r="E263" s="298"/>
+      <c r="E263" s="290"/>
       <c r="F263" s="113"/>
       <c r="G263" s="113"/>
       <c r="H263" s="113"/>
@@ -13593,10 +13529,10 @@
     </row>
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="161"/>
-      <c r="B264" s="280"/>
-      <c r="C264" s="280"/>
+      <c r="B264" s="281"/>
+      <c r="C264" s="281"/>
       <c r="D264" s="152"/>
-      <c r="E264" s="298"/>
+      <c r="E264" s="290"/>
       <c r="F264" s="176"/>
       <c r="G264" s="176"/>
       <c r="H264" s="176"/>
@@ -13624,10 +13560,10 @@
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="161"/>
-      <c r="B265" s="280"/>
-      <c r="C265" s="280"/>
+      <c r="B265" s="281"/>
+      <c r="C265" s="281"/>
       <c r="D265" s="152"/>
-      <c r="E265" s="298"/>
+      <c r="E265" s="290"/>
       <c r="F265" s="113"/>
       <c r="G265" s="113"/>
       <c r="H265" s="113"/>
@@ -13655,10 +13591,10 @@
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
       <c r="A266" s="161"/>
-      <c r="B266" s="280"/>
-      <c r="C266" s="280"/>
+      <c r="B266" s="281"/>
+      <c r="C266" s="281"/>
       <c r="D266" s="152"/>
-      <c r="E266" s="299"/>
+      <c r="E266" s="291"/>
       <c r="F266" s="113"/>
       <c r="G266" s="113"/>
       <c r="H266" s="113"/>
@@ -13686,8 +13622,8 @@
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="161"/>
-      <c r="B267" s="280"/>
-      <c r="C267" s="280"/>
+      <c r="B267" s="281"/>
+      <c r="C267" s="281"/>
       <c r="D267" s="152"/>
       <c r="E267" s="157"/>
       <c r="F267" s="110"/>
@@ -13717,8 +13653,8 @@
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="161"/>
-      <c r="B268" s="280"/>
-      <c r="C268" s="280"/>
+      <c r="B268" s="281"/>
+      <c r="C268" s="281"/>
       <c r="D268" s="152"/>
       <c r="E268" s="157"/>
       <c r="F268" s="111"/>
@@ -13748,10 +13684,10 @@
     </row>
     <row r="269" spans="1:29" ht="15.75" customHeight="1">
       <c r="A269" s="161"/>
-      <c r="B269" s="280"/>
-      <c r="C269" s="280"/>
+      <c r="B269" s="281"/>
+      <c r="C269" s="281"/>
       <c r="D269" s="177"/>
-      <c r="E269" s="291"/>
+      <c r="E269" s="288"/>
       <c r="F269" s="120"/>
       <c r="G269" s="120"/>
       <c r="H269" s="120"/>
@@ -13779,10 +13715,10 @@
     </row>
     <row r="270" spans="1:29" ht="15.75" customHeight="1">
       <c r="A270" s="161"/>
-      <c r="B270" s="280"/>
-      <c r="C270" s="280"/>
+      <c r="B270" s="281"/>
+      <c r="C270" s="281"/>
       <c r="D270" s="158"/>
-      <c r="E270" s="298"/>
+      <c r="E270" s="290"/>
       <c r="F270" s="111"/>
       <c r="G270" s="111"/>
       <c r="H270" s="111"/>
@@ -13810,10 +13746,10 @@
     </row>
     <row r="271" spans="1:29" ht="15.75" customHeight="1">
       <c r="A271" s="161"/>
-      <c r="B271" s="280"/>
-      <c r="C271" s="280"/>
+      <c r="B271" s="281"/>
+      <c r="C271" s="281"/>
       <c r="D271" s="158"/>
-      <c r="E271" s="298"/>
+      <c r="E271" s="290"/>
       <c r="F271" s="111"/>
       <c r="G271" s="111"/>
       <c r="H271" s="111"/>
@@ -13841,10 +13777,10 @@
     </row>
     <row r="272" spans="1:29" ht="15.75" customHeight="1">
       <c r="A272" s="161"/>
-      <c r="B272" s="280"/>
-      <c r="C272" s="283"/>
+      <c r="B272" s="281"/>
+      <c r="C272" s="266"/>
       <c r="D272" s="137"/>
-      <c r="E272" s="299"/>
+      <c r="E272" s="291"/>
       <c r="F272" s="111"/>
       <c r="G272" s="111"/>
       <c r="H272" s="111"/>
@@ -13872,7 +13808,7 @@
     </row>
     <row r="273" spans="1:29" ht="15.75" customHeight="1">
       <c r="A273" s="161"/>
-      <c r="B273" s="280"/>
+      <c r="B273" s="281"/>
       <c r="C273" s="152"/>
       <c r="D273" s="158"/>
       <c r="E273" s="158"/>
@@ -13903,10 +13839,10 @@
     </row>
     <row r="274" spans="1:29" ht="15.75" customHeight="1">
       <c r="A274" s="161"/>
-      <c r="B274" s="280"/>
-      <c r="C274" s="291"/>
+      <c r="B274" s="281"/>
+      <c r="C274" s="288"/>
       <c r="D274" s="177"/>
-      <c r="E274" s="300"/>
+      <c r="E274" s="292"/>
       <c r="F274" s="120"/>
       <c r="G274" s="120"/>
       <c r="H274" s="120"/>
@@ -13934,10 +13870,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
       <c r="A275" s="161"/>
-      <c r="B275" s="280"/>
-      <c r="C275" s="280"/>
+      <c r="B275" s="281"/>
+      <c r="C275" s="281"/>
       <c r="D275" s="137"/>
-      <c r="E275" s="301"/>
+      <c r="E275" s="293"/>
       <c r="F275" s="120"/>
       <c r="G275" s="120"/>
       <c r="H275" s="120"/>
@@ -13965,10 +13901,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="161"/>
-      <c r="B276" s="280"/>
-      <c r="C276" s="280"/>
+      <c r="B276" s="281"/>
+      <c r="C276" s="281"/>
       <c r="D276" s="152"/>
-      <c r="E276" s="300"/>
+      <c r="E276" s="292"/>
       <c r="F276" s="120"/>
       <c r="G276" s="120"/>
       <c r="H276" s="120"/>
@@ -13996,10 +13932,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="161"/>
-      <c r="B277" s="280"/>
-      <c r="C277" s="283"/>
+      <c r="B277" s="281"/>
+      <c r="C277" s="266"/>
       <c r="D277" s="152"/>
-      <c r="E277" s="301"/>
+      <c r="E277" s="293"/>
       <c r="F277" s="120"/>
       <c r="G277" s="120"/>
       <c r="H277" s="120"/>
@@ -14027,7 +13963,7 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="161"/>
-      <c r="B278" s="280"/>
+      <c r="B278" s="281"/>
       <c r="C278" s="157"/>
       <c r="D278" s="157"/>
       <c r="E278" s="161"/>
@@ -14058,10 +13994,10 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="161"/>
-      <c r="B279" s="280"/>
-      <c r="C279" s="291"/>
+      <c r="B279" s="281"/>
+      <c r="C279" s="288"/>
       <c r="D279" s="177"/>
-      <c r="E279" s="291"/>
+      <c r="E279" s="288"/>
       <c r="F279" s="120"/>
       <c r="G279" s="120"/>
       <c r="H279" s="120"/>
@@ -14089,10 +14025,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="161"/>
-      <c r="B280" s="280"/>
-      <c r="C280" s="280"/>
+      <c r="B280" s="281"/>
+      <c r="C280" s="281"/>
       <c r="D280" s="158"/>
-      <c r="E280" s="298"/>
+      <c r="E280" s="290"/>
       <c r="F280" s="120"/>
       <c r="G280" s="120"/>
       <c r="H280" s="120"/>
@@ -14120,10 +14056,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="161"/>
-      <c r="B281" s="280"/>
-      <c r="C281" s="280"/>
+      <c r="B281" s="281"/>
+      <c r="C281" s="281"/>
       <c r="D281" s="158"/>
-      <c r="E281" s="298"/>
+      <c r="E281" s="290"/>
       <c r="F281" s="120"/>
       <c r="G281" s="120"/>
       <c r="H281" s="120"/>
@@ -14151,10 +14087,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="161"/>
-      <c r="B282" s="280"/>
-      <c r="C282" s="280"/>
+      <c r="B282" s="281"/>
+      <c r="C282" s="281"/>
       <c r="D282" s="158"/>
-      <c r="E282" s="298"/>
+      <c r="E282" s="290"/>
       <c r="F282" s="120"/>
       <c r="G282" s="120"/>
       <c r="H282" s="120"/>
@@ -14182,10 +14118,10 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="161"/>
-      <c r="B283" s="280"/>
-      <c r="C283" s="280"/>
+      <c r="B283" s="281"/>
+      <c r="C283" s="281"/>
       <c r="D283" s="158"/>
-      <c r="E283" s="298"/>
+      <c r="E283" s="290"/>
       <c r="F283" s="113"/>
       <c r="G283" s="113"/>
       <c r="H283" s="113"/>
@@ -14213,10 +14149,10 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="161"/>
-      <c r="B284" s="280"/>
-      <c r="C284" s="280"/>
+      <c r="B284" s="281"/>
+      <c r="C284" s="281"/>
       <c r="D284" s="137"/>
-      <c r="E284" s="299"/>
+      <c r="E284" s="291"/>
       <c r="F284" s="113"/>
       <c r="G284" s="113"/>
       <c r="H284" s="113"/>
@@ -14244,10 +14180,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="161"/>
-      <c r="B285" s="280"/>
-      <c r="C285" s="280"/>
+      <c r="B285" s="281"/>
+      <c r="C285" s="281"/>
       <c r="D285" s="177"/>
-      <c r="E285" s="291"/>
+      <c r="E285" s="288"/>
       <c r="F285" s="120"/>
       <c r="G285" s="120"/>
       <c r="H285" s="120"/>
@@ -14275,10 +14211,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="161"/>
-      <c r="B286" s="280"/>
-      <c r="C286" s="280"/>
+      <c r="B286" s="281"/>
+      <c r="C286" s="281"/>
       <c r="D286" s="158"/>
-      <c r="E286" s="298"/>
+      <c r="E286" s="290"/>
       <c r="F286" s="111"/>
       <c r="G286" s="111"/>
       <c r="H286" s="111"/>
@@ -14306,10 +14242,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
       <c r="A287" s="161"/>
-      <c r="B287" s="280"/>
-      <c r="C287" s="280"/>
+      <c r="B287" s="281"/>
+      <c r="C287" s="281"/>
       <c r="D287" s="158"/>
-      <c r="E287" s="298"/>
+      <c r="E287" s="290"/>
       <c r="F287" s="111"/>
       <c r="G287" s="111"/>
       <c r="H287" s="111"/>
@@ -14337,10 +14273,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
       <c r="A288" s="161"/>
-      <c r="B288" s="283"/>
-      <c r="C288" s="283"/>
+      <c r="B288" s="266"/>
+      <c r="C288" s="266"/>
       <c r="D288" s="137"/>
-      <c r="E288" s="299"/>
+      <c r="E288" s="291"/>
       <c r="F288" s="111"/>
       <c r="G288" s="111"/>
       <c r="H288" s="111"/>
@@ -17090,39 +17026,6 @@
     <row r="970" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D65:D75"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="D99:D107"/>
-    <mergeCell ref="K242:K243"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="K246:K247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="B259:B288"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="E279:E284"/>
-    <mergeCell ref="E276:E277"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="E269:E272"/>
-    <mergeCell ref="E259:E266"/>
-    <mergeCell ref="C279:C288"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C226:C230"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="C259:C272"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="D156:D164"/>
-    <mergeCell ref="K207:K209"/>
-    <mergeCell ref="L207:L209"/>
-    <mergeCell ref="C216:C222"/>
-    <mergeCell ref="E216:E218"/>
     <mergeCell ref="D10:D36"/>
     <mergeCell ref="C15:C33"/>
     <mergeCell ref="C35:C36"/>
@@ -17139,6 +17042,39 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D156:D164"/>
+    <mergeCell ref="K207:K209"/>
+    <mergeCell ref="L207:L209"/>
+    <mergeCell ref="C216:C222"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C226:C230"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="C259:C272"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="K242:K243"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="K246:K247"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B259:B288"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="E279:E284"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="E269:E272"/>
+    <mergeCell ref="E259:E266"/>
+    <mergeCell ref="C279:C288"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D65:D75"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="D99:D107"/>
   </mergeCells>
   <conditionalFormatting sqref="L8 L10:L36">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
@@ -17178,9 +17114,7 @@
     <hyperlink ref="H16" r:id="rId2" xr:uid="{2534BE72-3C32-4023-B09F-D7AB2FB1C382}"/>
     <hyperlink ref="H18" r:id="rId3" xr:uid="{6BC2503B-439C-4993-8B95-26F1BD29FA50}"/>
     <hyperlink ref="H24" r:id="rId4" display="Sapro@12345" xr:uid="{B9BD59F9-269F-463D-A244-1DBCE24FAEEF}"/>
-    <hyperlink ref="J17" r:id="rId5" xr:uid="{F2C6AE49-8E4E-4D17-90CF-EA7B753D3E3B}"/>
-    <hyperlink ref="J46" r:id="rId6" display="https://ibb.co/4g5NdPV" xr:uid="{412C8E92-2CE8-4D14-A35D-44C1E66BC2F5}"/>
-    <hyperlink ref="J47" r:id="rId7" xr:uid="{6B1116AE-52B5-4368-AA71-07BFA18E2DDD}"/>
+    <hyperlink ref="J47" r:id="rId5" xr:uid="{6B1116AE-52B5-4368-AA71-07BFA18E2DDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -17191,22 +17125,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W932"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A45" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="51.21875" customWidth="1"/>
-    <col min="7" max="26" width="8.5546875" customWidth="1"/>
+    <col min="1" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="51.19921875" customWidth="1"/>
+    <col min="7" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1"/>
-    <row r="2" spans="1:23" ht="5.55" customHeight="1"/>
-    <row r="3" spans="1:23" ht="43.05" customHeight="1">
+    <row r="2" spans="1:23" ht="5.5" customHeight="1"/>
+    <row r="3" spans="1:23" ht="43" customHeight="1">
       <c r="D3" s="248"/>
       <c r="F3" s="248" t="s">
         <v>95</v>
@@ -17215,23 +17149,23 @@
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
       <c r="E5" s="249" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F5" s="259" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
       <c r="E6" s="251" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F6" s="252" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" thickBot="1">
       <c r="E7" s="251" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F7" s="252"/>
     </row>
@@ -17240,7 +17174,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="253" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13.5" customHeight="1">
@@ -17250,7 +17184,7 @@
     <row r="10" spans="1:23" ht="21" customHeight="1">
       <c r="E10" s="317"/>
       <c r="F10" s="253" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1">
@@ -17260,22 +17194,22 @@
     <row r="12" spans="1:23" ht="33" customHeight="1">
       <c r="E12" s="317"/>
       <c r="F12" s="255" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="27" customHeight="1">
       <c r="E13" s="317"/>
       <c r="F13" s="254" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="27.45" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="27.5" customHeight="1">
       <c r="E14" s="317"/>
       <c r="F14" s="255" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="17.55" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="17.5" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -17303,7 +17237,7 @@
     <row r="16" spans="1:23" ht="27" customHeight="1">
       <c r="E16" s="317"/>
       <c r="F16" s="257" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="12.75" customHeight="1">
@@ -17313,13 +17247,13 @@
     <row r="18" spans="5:6" ht="12.75" customHeight="1">
       <c r="E18" s="317"/>
       <c r="F18" s="253" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="5:6" ht="12.75" customHeight="1">
       <c r="E19" s="317"/>
       <c r="F19" s="255" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
@@ -17328,40 +17262,40 @@
     </row>
     <row r="21" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="E21" s="251" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F21" s="252" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="E22" s="251" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F22" s="258"/>
     </row>
     <row r="23" spans="5:6" ht="12.75" customHeight="1"/>
     <row r="24" spans="5:6" ht="12.75" customHeight="1"/>
     <row r="25" spans="5:6" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="26" spans="5:6" ht="14.55" customHeight="1" thickBot="1">
+    <row r="26" spans="5:6" ht="14.5" customHeight="1" thickBot="1">
       <c r="E26" s="249" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F26" s="250" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="15.45" customHeight="1" thickBot="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="15.5" customHeight="1" thickBot="1">
       <c r="E27" s="251" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="252" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" ht="15.45" customHeight="1" thickBot="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" ht="15.5" customHeight="1" thickBot="1">
       <c r="E28" s="251" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F28" s="252"/>
     </row>
@@ -17370,7 +17304,7 @@
         <v>32</v>
       </c>
       <c r="F29" s="253" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="5:6" ht="12.75" customHeight="1">
@@ -17380,7 +17314,7 @@
     <row r="31" spans="5:6" ht="12.75" customHeight="1">
       <c r="E31" s="317"/>
       <c r="F31" s="253" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="5:6" ht="12.75" customHeight="1">
@@ -17390,19 +17324,19 @@
     <row r="33" spans="5:6" ht="12.75" customHeight="1">
       <c r="E33" s="317"/>
       <c r="F33" s="255" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="12.75" customHeight="1">
       <c r="E34" s="317"/>
       <c r="F34" s="254" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="5:6" ht="12.75" customHeight="1">
       <c r="E35" s="317"/>
       <c r="F35" s="254" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="5:6" ht="12.75" customHeight="1">
@@ -17412,7 +17346,7 @@
     <row r="37" spans="5:6" ht="12.75" customHeight="1">
       <c r="E37" s="317"/>
       <c r="F37" s="254" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="5:6" ht="12.75" customHeight="1">
@@ -17422,13 +17356,13 @@
     <row r="39" spans="5:6" ht="12.75" customHeight="1">
       <c r="E39" s="317"/>
       <c r="F39" s="253" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="5:6" ht="12.75" customHeight="1">
       <c r="E40" s="317"/>
       <c r="F40" s="255" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
@@ -17437,15 +17371,15 @@
     </row>
     <row r="42" spans="5:6" ht="19.5" customHeight="1" thickBot="1">
       <c r="E42" s="251" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F42" s="252" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" ht="15.45" customHeight="1" thickBot="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" ht="15.5" customHeight="1" thickBot="1">
       <c r="E43" s="251" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F43" s="258"/>
     </row>
@@ -17454,23 +17388,23 @@
     <row r="46" spans="5:6" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="47" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="E47" s="249" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F47" s="250" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="E48" s="251" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F48" s="252" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="E49" s="251" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F49" s="252"/>
     </row>
@@ -17479,7 +17413,7 @@
         <v>32</v>
       </c>
       <c r="F50" s="253" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="12.75" customHeight="1">
@@ -17489,7 +17423,7 @@
     <row r="52" spans="5:6" ht="12.75" customHeight="1">
       <c r="E52" s="317"/>
       <c r="F52" s="253" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="12.75" customHeight="1">
@@ -17499,25 +17433,25 @@
     <row r="54" spans="5:6" ht="18" customHeight="1">
       <c r="E54" s="317"/>
       <c r="F54" s="260" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="21.45" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" ht="21.5" customHeight="1">
       <c r="E55" s="317"/>
       <c r="F55" s="260" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="31.95" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" ht="32" customHeight="1">
       <c r="E56" s="317"/>
       <c r="F56" s="261" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" ht="24.45" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="24.5" customHeight="1">
       <c r="E57" s="317"/>
       <c r="F57" s="261" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="5:6" ht="12.75" customHeight="1">
@@ -17527,7 +17461,7 @@
     <row r="59" spans="5:6" ht="12.75" customHeight="1">
       <c r="E59" s="317"/>
       <c r="F59" s="254" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="5:6" ht="12.75" customHeight="1">
@@ -17537,30 +17471,30 @@
     <row r="61" spans="5:6" ht="12.75" customHeight="1">
       <c r="E61" s="317"/>
       <c r="F61" s="253" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="5:6" ht="12.75" customHeight="1">
       <c r="E62" s="317"/>
       <c r="F62" s="255" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" ht="18.45" customHeight="1" thickBot="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" ht="18.5" customHeight="1" thickBot="1">
       <c r="E63" s="318"/>
       <c r="F63" s="258"/>
     </row>
     <row r="64" spans="5:6" ht="19.5" customHeight="1" thickBot="1">
       <c r="E64" s="251" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F64" s="252" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="5:6" ht="27" customHeight="1" thickBot="1">
       <c r="E65" s="251" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F65" s="258"/>
     </row>
@@ -18437,7 +18371,7 @@
     <mergeCell ref="E29:E41"/>
     <mergeCell ref="E8:E20"/>
   </mergeCells>
-  <phoneticPr fontId="56" type="noConversion"/>
+  <phoneticPr fontId="55" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" display="https://www.batabd.com/" xr:uid="{0ADB35AA-65E8-472E-82B2-2D96B1CDAF99}"/>
     <hyperlink ref="F14" r:id="rId2" display="mailto:abc@gmail.com" xr:uid="{F6A3DEC0-09FE-4C49-9137-60E73EC94228}"/>
@@ -18459,58 +18393,58 @@
       <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="11" width="14.296875" customWidth="1"/>
+    <col min="12" max="12" width="40.69921875" customWidth="1"/>
+    <col min="13" max="13" width="28.09765625" customWidth="1"/>
+    <col min="14" max="14" width="21.296875" customWidth="1"/>
+    <col min="15" max="15" width="30.69921875" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="26" width="12.6640625" customWidth="1"/>
+    <col min="17" max="18" width="14.296875" customWidth="1"/>
+    <col min="19" max="26" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="343" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="302"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="323" t="s">
+      <c r="C5" s="330" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="325"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="332"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="323" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="325"/>
+      <c r="C6" s="330" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="332"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -18526,11 +18460,11 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="323"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="325"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="332"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>34</v>
@@ -18545,13 +18479,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="323" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="325"/>
+      <c r="C8" s="330" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="332"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>3</v>
@@ -18566,13 +18500,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="323" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="324"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="324"/>
-      <c r="G9" s="325"/>
+      <c r="C9" s="330" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="332"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -18599,13 +18533,13 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="323" t="s">
+      <c r="C10" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="325"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="332"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -18621,22 +18555,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="335" t="s">
+      <c r="B11" s="333" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="337"/>
+      <c r="C11" s="334"/>
+      <c r="D11" s="334"/>
+      <c r="E11" s="334"/>
+      <c r="F11" s="334"/>
+      <c r="G11" s="335"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="332"/>
-      <c r="C12" s="333"/>
-      <c r="D12" s="333"/>
-      <c r="E12" s="333"/>
-      <c r="F12" s="333"/>
-      <c r="G12" s="334"/>
+      <c r="B12" s="326"/>
+      <c r="C12" s="327"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="327"/>
+      <c r="F12" s="327"/>
+      <c r="G12" s="328"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -18771,21 +18705,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="338" t="s">
+      <c r="B18" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="322"/>
-      <c r="D18" s="322"/>
-      <c r="E18" s="322"/>
-      <c r="F18" s="322"/>
-      <c r="G18" s="272"/>
+      <c r="C18" s="337"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="337"/>
+      <c r="F18" s="337"/>
+      <c r="G18" s="302"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="339" t="s">
+      <c r="B19" s="338" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="322"/>
-      <c r="D19" s="272"/>
+      <c r="C19" s="337"/>
+      <c r="D19" s="302"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>26</v>
@@ -18795,11 +18729,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="340" t="s">
+      <c r="B20" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="322"/>
-      <c r="D20" s="272"/>
+      <c r="C20" s="337"/>
+      <c r="D20" s="302"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>29</v>
@@ -18809,11 +18743,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="340" t="s">
+      <c r="B21" s="339" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="322"/>
-      <c r="D21" s="272"/>
+      <c r="C21" s="337"/>
+      <c r="D21" s="302"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>29</v>
@@ -18824,40 +18758,40 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="343"/>
-      <c r="C23" s="341" t="s">
+      <c r="B23" s="342"/>
+      <c r="C23" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="342" t="s">
+      <c r="D23" s="341" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="328"/>
-      <c r="F23" s="328"/>
-      <c r="G23" s="329"/>
+      <c r="E23" s="322"/>
+      <c r="F23" s="322"/>
+      <c r="G23" s="323"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="269"/>
-      <c r="C24" s="269"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="312"/>
-      <c r="F24" s="312"/>
-      <c r="G24" s="331"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="325"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="269"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="330"/>
-      <c r="E25" s="312"/>
-      <c r="F25" s="312"/>
-      <c r="G25" s="331"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="324"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="325"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="304"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="333"/>
-      <c r="F26" s="333"/>
-      <c r="G26" s="334"/>
+      <c r="B26" s="269"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="327"/>
+      <c r="F26" s="327"/>
+      <c r="G26" s="328"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
       <c r="B27" s="319" t="s">
@@ -18866,36 +18800,36 @@
       <c r="C27" s="320" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="327" t="s">
+      <c r="D27" s="321" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="328"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="329"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="322"/>
+      <c r="G27" s="323"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="269"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="312"/>
-      <c r="F28" s="312"/>
-      <c r="G28" s="331"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="325"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="269"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="330"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="331"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="324"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="325"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="304"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="333"/>
-      <c r="F30" s="333"/>
-      <c r="G30" s="334"/>
+      <c r="B30" s="269"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="326"/>
+      <c r="E30" s="327"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="328"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
       <c r="B31" s="319" t="s">
@@ -18904,36 +18838,36 @@
       <c r="C31" s="320" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="327" t="s">
+      <c r="D31" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="329"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="269"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="330"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="331"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="324"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="325"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="330"/>
-      <c r="E33" s="312"/>
-      <c r="F33" s="312"/>
-      <c r="G33" s="331"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="268"/>
+      <c r="D33" s="324"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="325"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="304"/>
-      <c r="C34" s="304"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
-      <c r="G34" s="334"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="326"/>
+      <c r="E34" s="327"/>
+      <c r="F34" s="327"/>
+      <c r="G34" s="328"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
       <c r="B35" s="319" t="s">
@@ -18942,36 +18876,36 @@
       <c r="C35" s="320" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="327" t="s">
+      <c r="D35" s="321" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="328"/>
-      <c r="F35" s="328"/>
-      <c r="G35" s="329"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="322"/>
+      <c r="G35" s="323"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="269"/>
-      <c r="C36" s="269"/>
-      <c r="D36" s="330"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="312"/>
-      <c r="G36" s="331"/>
+      <c r="B36" s="268"/>
+      <c r="C36" s="268"/>
+      <c r="D36" s="324"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="325"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="269"/>
-      <c r="C37" s="269"/>
-      <c r="D37" s="330"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="331"/>
+      <c r="B37" s="268"/>
+      <c r="C37" s="268"/>
+      <c r="D37" s="324"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="325"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="304"/>
-      <c r="C38" s="304"/>
-      <c r="D38" s="332"/>
-      <c r="E38" s="333"/>
-      <c r="F38" s="333"/>
-      <c r="G38" s="334"/>
+      <c r="B38" s="269"/>
+      <c r="C38" s="269"/>
+      <c r="D38" s="326"/>
+      <c r="E38" s="327"/>
+      <c r="F38" s="327"/>
+      <c r="G38" s="328"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
       <c r="B39" s="319" t="s">
@@ -18980,74 +18914,74 @@
       <c r="C39" s="320" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="327" t="s">
+      <c r="D39" s="321" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="328"/>
-      <c r="F39" s="328"/>
-      <c r="G39" s="329"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="322"/>
+      <c r="G39" s="323"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="269"/>
-      <c r="C40" s="269"/>
-      <c r="D40" s="330"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="331"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="268"/>
+      <c r="D40" s="324"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="325"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="269"/>
-      <c r="C41" s="269"/>
-      <c r="D41" s="330"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="331"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="268"/>
+      <c r="D41" s="324"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="325"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="304"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="332"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="334"/>
+      <c r="B42" s="269"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="326"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="327"/>
+      <c r="G42" s="328"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
       <c r="B43" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="326" t="s">
+      <c r="C43" s="329" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="327" t="s">
+      <c r="D43" s="321" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="328"/>
-      <c r="F43" s="328"/>
-      <c r="G43" s="329"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="322"/>
+      <c r="G43" s="323"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="269"/>
-      <c r="C44" s="269"/>
-      <c r="D44" s="330"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="331"/>
+      <c r="B44" s="268"/>
+      <c r="C44" s="268"/>
+      <c r="D44" s="324"/>
+      <c r="E44" s="279"/>
+      <c r="F44" s="279"/>
+      <c r="G44" s="325"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="269"/>
-      <c r="C45" s="269"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="331"/>
+      <c r="B45" s="268"/>
+      <c r="C45" s="268"/>
+      <c r="D45" s="324"/>
+      <c r="E45" s="279"/>
+      <c r="F45" s="279"/>
+      <c r="G45" s="325"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="304"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="332"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="334"/>
+      <c r="B46" s="269"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="327"/>
+      <c r="F46" s="327"/>
+      <c r="G46" s="328"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:7" ht="15.75" customHeight="1"/>
@@ -19997,11 +19931,15 @@
     <row r="992" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C31:C34"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="D43:G46"/>
@@ -20018,15 +19956,11 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:G26"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -20042,14 +19976,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="26" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
+    <col min="3" max="3" width="35.8984375" customWidth="1"/>
+    <col min="4" max="4" width="59.296875" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
@@ -20112,18 +20046,18 @@
       <c r="B3" s="344" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="329"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="323"/>
       <c r="F3" s="202"/>
       <c r="G3" s="202"/>
       <c r="H3" s="202"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="332"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="334"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="327"/>
+      <c r="D4" s="327"/>
+      <c r="E4" s="328"/>
       <c r="F4" s="202"/>
       <c r="G4" s="202"/>
       <c r="H4" s="202"/>
@@ -20154,7 +20088,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="206" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F6" s="205"/>
       <c r="G6" s="205"/>
@@ -20190,7 +20124,7 @@
         <v>102</v>
       </c>
       <c r="E7" s="206" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F7" s="205"/>
       <c r="G7" s="205"/>
@@ -20226,7 +20160,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="206" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F8" s="211"/>
       <c r="G8" s="211"/>
@@ -20262,7 +20196,7 @@
         <v>106</v>
       </c>
       <c r="E9" s="262" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F9" s="211"/>
       <c r="G9" s="211"/>
@@ -20298,7 +20232,7 @@
         <v>108</v>
       </c>
       <c r="E10" s="206" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F10" s="211"/>
       <c r="G10" s="211"/>
